--- a/biology/Mycologie/Peronosporaceae/Peronosporaceae.xlsx
+++ b/biology/Mycologie/Peronosporaceae/Peronosporaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Peronosporaceae est une famille de champignon de la classe des Oomycota.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 octobre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 octobre 2014) :
 genre Basidiophora
 genre Benua
 genre Bremia
@@ -536,7 +550,7 @@
 genre Sclerophthora
 genre Sclerospora
 genre Viennotia
-Selon ITIS      (8 nov. 2011)[2] :
+Selon ITIS      (8 nov. 2011) :
 genre Basidiophora Roze &amp; Cornu, 1869
 genre Peronospora Corda, 1837
 genre Plasmopora Schroeter, 1886
@@ -568,9 +582,11 @@
           <t>Liste des genres, espèces, formes et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (28 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (28 octobre 2014) :
 genre Basidiophora
 Basidiophora entospora
 genre Benua
